--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="22">
   <si>
     <t>HospitalNames</t>
   </si>
@@ -597,21 +597,23 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6"/>
     </row>
     <row r="7">
       <c r="A7"/>
